--- a/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaTheoXe.xlsx
+++ b/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaTheoXe.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128B986-F358-42D7-97CA-AC4E58029ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Biển số</t>
   </si>
@@ -71,11 +83,14 @@
   <si>
     <t>Chi phí</t>
   </si>
+  <si>
+    <t>Tổng giảm trừ BH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -83,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +106,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,7 +114,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,27 +451,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -472,8 +488,9 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -489,8 +506,9 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -506,8 +524,9 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,25 +549,28 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -560,10 +582,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -575,10 +598,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -590,10 +614,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -605,10 +630,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -620,10 +646,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -635,10 +662,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -650,10 +678,11 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -665,10 +694,11 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -680,10 +710,11 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -695,10 +726,11 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -710,10 +742,11 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -725,10 +758,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -740,10 +774,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -755,10 +790,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -770,10 +806,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -785,10 +822,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -800,10 +838,11 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -815,10 +854,11 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -830,10 +870,11 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -845,10 +886,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -860,10 +902,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -875,10 +918,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -890,10 +934,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -905,10 +950,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -920,10 +966,11 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -935,10 +982,11 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -950,10 +998,11 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -965,10 +1014,11 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -980,10 +1030,11 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -995,10 +1046,11 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1010,10 +1062,11 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1025,10 +1078,11 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1040,10 +1094,11 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1055,10 +1110,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1070,10 +1126,11 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1085,10 +1142,11 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1100,10 +1158,11 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1115,10 +1174,11 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="3"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1130,10 +1190,11 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1145,10 +1206,11 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1160,10 +1222,11 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1175,10 +1238,11 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="3"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1190,10 +1254,11 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1205,10 +1270,11 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1220,10 +1286,11 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1235,10 +1302,11 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1250,10 +1318,11 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1265,10 +1334,11 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1280,10 +1350,11 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1295,10 +1366,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L55" s="3"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1310,10 +1382,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1325,10 +1398,11 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="3"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1340,10 +1414,11 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="3"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1355,10 +1430,11 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="3"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1370,10 +1446,11 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1385,10 +1462,11 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="3"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1400,10 +1478,11 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="3"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1415,10 +1494,11 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="3"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1430,10 +1510,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="3"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1445,10 +1526,11 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L65" s="3"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1460,10 +1542,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1475,10 +1558,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L67" s="3"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1490,10 +1574,11 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1505,10 +1590,11 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L69" s="3"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1520,10 +1606,11 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L70" s="3"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1535,10 +1622,11 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="3"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1550,10 +1638,11 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="3"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1565,10 +1654,11 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L73" s="3"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1580,10 +1670,11 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L74" s="3"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1595,10 +1686,11 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L75" s="3"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1610,10 +1702,11 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L76" s="3"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1625,10 +1718,11 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L77" s="3"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1640,10 +1734,11 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L78" s="3"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1655,10 +1750,11 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L79" s="3"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1670,10 +1766,11 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L80" s="3"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1685,10 +1782,11 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L81" s="3"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1700,10 +1798,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L82" s="3"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1715,10 +1814,11 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L83" s="3"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1730,10 +1830,11 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L84" s="3"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1745,10 +1846,11 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L85" s="3"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1760,10 +1862,11 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L86" s="3"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1775,10 +1878,11 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L87" s="3"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1790,10 +1894,11 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L88" s="3"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1805,10 +1910,11 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L89" s="3"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1820,10 +1926,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L90" s="3"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1835,10 +1942,11 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L91" s="3"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1850,10 +1958,11 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L92" s="3"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1865,10 +1974,11 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L93" s="3"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1880,10 +1990,11 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L94" s="3"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1895,10 +2006,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L95" s="3"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1910,10 +2022,11 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L96" s="3"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1925,10 +2038,11 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L97" s="3"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1940,10 +2054,11 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L98" s="3"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1955,10 +2070,11 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L99" s="3"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1970,10 +2086,11 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="3"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>15</v>
       </c>
@@ -2005,16 +2122,20 @@
         <f>SUM(K$6:K100)</f>
         <v>0</v>
       </c>
-      <c r="L101" s="9"/>
+      <c r="L101" s="5">
+        <f>SUM(L$6:L100)</f>
+        <v>0</v>
+      </c>
       <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
     <mergeCell ref="A101:E101"/>
-    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="M101:N101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
